--- a/ruoyi-admin/src/main/resources/excelOutTemplate/outDlDetectRecorsExcelTemplate.xlsx
+++ b/ruoyi-admin/src/main/resources/excelOutTemplate/outDlDetectRecorsExcelTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\adata\idejavaprojact\RuoYi-Vue-master\ruoyi-admin\src\main\java\com\ruoyi\excelOutTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B38D2E8-4623-4852-B204-8347D2E731D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26E7F5B-1DF2-4516-AF72-9E7F6AF8C314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -72,10 +72,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>t.vegQualifiedCount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>t.vegPassRate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -84,10 +80,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>t.fruQualifiedCount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>t.fruPassRate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -96,16 +88,24 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>t.allQualifiedCount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>t.allPassRate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>全区蔬菜水果质量安全例行监测
 定量结果汇总表（二）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.vegPassCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.fruPassCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.allPassCount</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -253,14 +253,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -546,528 +546,528 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="4" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="20" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" style="1" customWidth="1"/>
-    <col min="12" max="256" width="8.77734375" style="1"/>
-    <col min="257" max="257" width="4.6640625" style="1" customWidth="1"/>
-    <col min="258" max="258" width="12.77734375" style="1" customWidth="1"/>
-    <col min="259" max="259" width="8.77734375" style="1"/>
-    <col min="260" max="260" width="8.109375" style="1" customWidth="1"/>
-    <col min="261" max="261" width="10.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="1" customWidth="1"/>
+    <col min="12" max="256" width="8.75" style="1"/>
+    <col min="257" max="257" width="4.625" style="1" customWidth="1"/>
+    <col min="258" max="258" width="12.75" style="1" customWidth="1"/>
+    <col min="259" max="259" width="8.75" style="1"/>
+    <col min="260" max="260" width="8.125" style="1" customWidth="1"/>
+    <col min="261" max="261" width="10.125" style="1" customWidth="1"/>
     <col min="262" max="263" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="264" max="512" width="8.77734375" style="1"/>
-    <col min="513" max="513" width="4.6640625" style="1" customWidth="1"/>
-    <col min="514" max="514" width="12.77734375" style="1" customWidth="1"/>
-    <col min="515" max="515" width="8.77734375" style="1"/>
-    <col min="516" max="516" width="8.109375" style="1" customWidth="1"/>
-    <col min="517" max="517" width="10.109375" style="1" customWidth="1"/>
+    <col min="264" max="512" width="8.75" style="1"/>
+    <col min="513" max="513" width="4.625" style="1" customWidth="1"/>
+    <col min="514" max="514" width="12.75" style="1" customWidth="1"/>
+    <col min="515" max="515" width="8.75" style="1"/>
+    <col min="516" max="516" width="8.125" style="1" customWidth="1"/>
+    <col min="517" max="517" width="10.125" style="1" customWidth="1"/>
     <col min="518" max="519" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="520" max="768" width="8.77734375" style="1"/>
-    <col min="769" max="769" width="4.6640625" style="1" customWidth="1"/>
-    <col min="770" max="770" width="12.77734375" style="1" customWidth="1"/>
-    <col min="771" max="771" width="8.77734375" style="1"/>
-    <col min="772" max="772" width="8.109375" style="1" customWidth="1"/>
-    <col min="773" max="773" width="10.109375" style="1" customWidth="1"/>
+    <col min="520" max="768" width="8.75" style="1"/>
+    <col min="769" max="769" width="4.625" style="1" customWidth="1"/>
+    <col min="770" max="770" width="12.75" style="1" customWidth="1"/>
+    <col min="771" max="771" width="8.75" style="1"/>
+    <col min="772" max="772" width="8.125" style="1" customWidth="1"/>
+    <col min="773" max="773" width="10.125" style="1" customWidth="1"/>
     <col min="774" max="775" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="776" max="1024" width="8.77734375" style="1"/>
-    <col min="1025" max="1025" width="4.6640625" style="1" customWidth="1"/>
-    <col min="1026" max="1026" width="12.77734375" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="8.77734375" style="1"/>
-    <col min="1028" max="1028" width="8.109375" style="1" customWidth="1"/>
-    <col min="1029" max="1029" width="10.109375" style="1" customWidth="1"/>
+    <col min="776" max="1024" width="8.75" style="1"/>
+    <col min="1025" max="1025" width="4.625" style="1" customWidth="1"/>
+    <col min="1026" max="1026" width="12.75" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="8.75" style="1"/>
+    <col min="1028" max="1028" width="8.125" style="1" customWidth="1"/>
+    <col min="1029" max="1029" width="10.125" style="1" customWidth="1"/>
     <col min="1030" max="1031" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1280" width="8.77734375" style="1"/>
-    <col min="1281" max="1281" width="4.6640625" style="1" customWidth="1"/>
-    <col min="1282" max="1282" width="12.77734375" style="1" customWidth="1"/>
-    <col min="1283" max="1283" width="8.77734375" style="1"/>
-    <col min="1284" max="1284" width="8.109375" style="1" customWidth="1"/>
-    <col min="1285" max="1285" width="10.109375" style="1" customWidth="1"/>
+    <col min="1032" max="1280" width="8.75" style="1"/>
+    <col min="1281" max="1281" width="4.625" style="1" customWidth="1"/>
+    <col min="1282" max="1282" width="12.75" style="1" customWidth="1"/>
+    <col min="1283" max="1283" width="8.75" style="1"/>
+    <col min="1284" max="1284" width="8.125" style="1" customWidth="1"/>
+    <col min="1285" max="1285" width="10.125" style="1" customWidth="1"/>
     <col min="1286" max="1287" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1536" width="8.77734375" style="1"/>
-    <col min="1537" max="1537" width="4.6640625" style="1" customWidth="1"/>
-    <col min="1538" max="1538" width="12.77734375" style="1" customWidth="1"/>
-    <col min="1539" max="1539" width="8.77734375" style="1"/>
-    <col min="1540" max="1540" width="8.109375" style="1" customWidth="1"/>
-    <col min="1541" max="1541" width="10.109375" style="1" customWidth="1"/>
+    <col min="1288" max="1536" width="8.75" style="1"/>
+    <col min="1537" max="1537" width="4.625" style="1" customWidth="1"/>
+    <col min="1538" max="1538" width="12.75" style="1" customWidth="1"/>
+    <col min="1539" max="1539" width="8.75" style="1"/>
+    <col min="1540" max="1540" width="8.125" style="1" customWidth="1"/>
+    <col min="1541" max="1541" width="10.125" style="1" customWidth="1"/>
     <col min="1542" max="1543" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1792" width="8.77734375" style="1"/>
-    <col min="1793" max="1793" width="4.6640625" style="1" customWidth="1"/>
-    <col min="1794" max="1794" width="12.77734375" style="1" customWidth="1"/>
-    <col min="1795" max="1795" width="8.77734375" style="1"/>
-    <col min="1796" max="1796" width="8.109375" style="1" customWidth="1"/>
-    <col min="1797" max="1797" width="10.109375" style="1" customWidth="1"/>
+    <col min="1544" max="1792" width="8.75" style="1"/>
+    <col min="1793" max="1793" width="4.625" style="1" customWidth="1"/>
+    <col min="1794" max="1794" width="12.75" style="1" customWidth="1"/>
+    <col min="1795" max="1795" width="8.75" style="1"/>
+    <col min="1796" max="1796" width="8.125" style="1" customWidth="1"/>
+    <col min="1797" max="1797" width="10.125" style="1" customWidth="1"/>
     <col min="1798" max="1799" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="1800" max="2048" width="8.77734375" style="1"/>
-    <col min="2049" max="2049" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2050" max="2050" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2051" max="2051" width="8.77734375" style="1"/>
-    <col min="2052" max="2052" width="8.109375" style="1" customWidth="1"/>
-    <col min="2053" max="2053" width="10.109375" style="1" customWidth="1"/>
+    <col min="1800" max="2048" width="8.75" style="1"/>
+    <col min="2049" max="2049" width="4.625" style="1" customWidth="1"/>
+    <col min="2050" max="2050" width="12.75" style="1" customWidth="1"/>
+    <col min="2051" max="2051" width="8.75" style="1"/>
+    <col min="2052" max="2052" width="8.125" style="1" customWidth="1"/>
+    <col min="2053" max="2053" width="10.125" style="1" customWidth="1"/>
     <col min="2054" max="2055" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2304" width="8.77734375" style="1"/>
-    <col min="2305" max="2305" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2306" max="2306" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2307" max="2307" width="8.77734375" style="1"/>
-    <col min="2308" max="2308" width="8.109375" style="1" customWidth="1"/>
-    <col min="2309" max="2309" width="10.109375" style="1" customWidth="1"/>
+    <col min="2056" max="2304" width="8.75" style="1"/>
+    <col min="2305" max="2305" width="4.625" style="1" customWidth="1"/>
+    <col min="2306" max="2306" width="12.75" style="1" customWidth="1"/>
+    <col min="2307" max="2307" width="8.75" style="1"/>
+    <col min="2308" max="2308" width="8.125" style="1" customWidth="1"/>
+    <col min="2309" max="2309" width="10.125" style="1" customWidth="1"/>
     <col min="2310" max="2311" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2560" width="8.77734375" style="1"/>
-    <col min="2561" max="2561" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2562" max="2562" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2563" max="2563" width="8.77734375" style="1"/>
-    <col min="2564" max="2564" width="8.109375" style="1" customWidth="1"/>
-    <col min="2565" max="2565" width="10.109375" style="1" customWidth="1"/>
+    <col min="2312" max="2560" width="8.75" style="1"/>
+    <col min="2561" max="2561" width="4.625" style="1" customWidth="1"/>
+    <col min="2562" max="2562" width="12.75" style="1" customWidth="1"/>
+    <col min="2563" max="2563" width="8.75" style="1"/>
+    <col min="2564" max="2564" width="8.125" style="1" customWidth="1"/>
+    <col min="2565" max="2565" width="10.125" style="1" customWidth="1"/>
     <col min="2566" max="2567" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2816" width="8.77734375" style="1"/>
-    <col min="2817" max="2817" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2818" max="2818" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2819" max="2819" width="8.77734375" style="1"/>
-    <col min="2820" max="2820" width="8.109375" style="1" customWidth="1"/>
-    <col min="2821" max="2821" width="10.109375" style="1" customWidth="1"/>
+    <col min="2568" max="2816" width="8.75" style="1"/>
+    <col min="2817" max="2817" width="4.625" style="1" customWidth="1"/>
+    <col min="2818" max="2818" width="12.75" style="1" customWidth="1"/>
+    <col min="2819" max="2819" width="8.75" style="1"/>
+    <col min="2820" max="2820" width="8.125" style="1" customWidth="1"/>
+    <col min="2821" max="2821" width="10.125" style="1" customWidth="1"/>
     <col min="2822" max="2823" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2824" max="3072" width="8.77734375" style="1"/>
-    <col min="3073" max="3073" width="4.6640625" style="1" customWidth="1"/>
-    <col min="3074" max="3074" width="12.77734375" style="1" customWidth="1"/>
-    <col min="3075" max="3075" width="8.77734375" style="1"/>
-    <col min="3076" max="3076" width="8.109375" style="1" customWidth="1"/>
-    <col min="3077" max="3077" width="10.109375" style="1" customWidth="1"/>
+    <col min="2824" max="3072" width="8.75" style="1"/>
+    <col min="3073" max="3073" width="4.625" style="1" customWidth="1"/>
+    <col min="3074" max="3074" width="12.75" style="1" customWidth="1"/>
+    <col min="3075" max="3075" width="8.75" style="1"/>
+    <col min="3076" max="3076" width="8.125" style="1" customWidth="1"/>
+    <col min="3077" max="3077" width="10.125" style="1" customWidth="1"/>
     <col min="3078" max="3079" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3328" width="8.77734375" style="1"/>
-    <col min="3329" max="3329" width="4.6640625" style="1" customWidth="1"/>
-    <col min="3330" max="3330" width="12.77734375" style="1" customWidth="1"/>
-    <col min="3331" max="3331" width="8.77734375" style="1"/>
-    <col min="3332" max="3332" width="8.109375" style="1" customWidth="1"/>
-    <col min="3333" max="3333" width="10.109375" style="1" customWidth="1"/>
+    <col min="3080" max="3328" width="8.75" style="1"/>
+    <col min="3329" max="3329" width="4.625" style="1" customWidth="1"/>
+    <col min="3330" max="3330" width="12.75" style="1" customWidth="1"/>
+    <col min="3331" max="3331" width="8.75" style="1"/>
+    <col min="3332" max="3332" width="8.125" style="1" customWidth="1"/>
+    <col min="3333" max="3333" width="10.125" style="1" customWidth="1"/>
     <col min="3334" max="3335" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3584" width="8.77734375" style="1"/>
-    <col min="3585" max="3585" width="4.6640625" style="1" customWidth="1"/>
-    <col min="3586" max="3586" width="12.77734375" style="1" customWidth="1"/>
-    <col min="3587" max="3587" width="8.77734375" style="1"/>
-    <col min="3588" max="3588" width="8.109375" style="1" customWidth="1"/>
-    <col min="3589" max="3589" width="10.109375" style="1" customWidth="1"/>
+    <col min="3336" max="3584" width="8.75" style="1"/>
+    <col min="3585" max="3585" width="4.625" style="1" customWidth="1"/>
+    <col min="3586" max="3586" width="12.75" style="1" customWidth="1"/>
+    <col min="3587" max="3587" width="8.75" style="1"/>
+    <col min="3588" max="3588" width="8.125" style="1" customWidth="1"/>
+    <col min="3589" max="3589" width="10.125" style="1" customWidth="1"/>
     <col min="3590" max="3591" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3840" width="8.77734375" style="1"/>
-    <col min="3841" max="3841" width="4.6640625" style="1" customWidth="1"/>
-    <col min="3842" max="3842" width="12.77734375" style="1" customWidth="1"/>
-    <col min="3843" max="3843" width="8.77734375" style="1"/>
-    <col min="3844" max="3844" width="8.109375" style="1" customWidth="1"/>
-    <col min="3845" max="3845" width="10.109375" style="1" customWidth="1"/>
+    <col min="3592" max="3840" width="8.75" style="1"/>
+    <col min="3841" max="3841" width="4.625" style="1" customWidth="1"/>
+    <col min="3842" max="3842" width="12.75" style="1" customWidth="1"/>
+    <col min="3843" max="3843" width="8.75" style="1"/>
+    <col min="3844" max="3844" width="8.125" style="1" customWidth="1"/>
+    <col min="3845" max="3845" width="10.125" style="1" customWidth="1"/>
     <col min="3846" max="3847" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3848" max="4096" width="8.77734375" style="1"/>
-    <col min="4097" max="4097" width="4.6640625" style="1" customWidth="1"/>
-    <col min="4098" max="4098" width="12.77734375" style="1" customWidth="1"/>
-    <col min="4099" max="4099" width="8.77734375" style="1"/>
-    <col min="4100" max="4100" width="8.109375" style="1" customWidth="1"/>
-    <col min="4101" max="4101" width="10.109375" style="1" customWidth="1"/>
+    <col min="3848" max="4096" width="8.75" style="1"/>
+    <col min="4097" max="4097" width="4.625" style="1" customWidth="1"/>
+    <col min="4098" max="4098" width="12.75" style="1" customWidth="1"/>
+    <col min="4099" max="4099" width="8.75" style="1"/>
+    <col min="4100" max="4100" width="8.125" style="1" customWidth="1"/>
+    <col min="4101" max="4101" width="10.125" style="1" customWidth="1"/>
     <col min="4102" max="4103" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4352" width="8.77734375" style="1"/>
-    <col min="4353" max="4353" width="4.6640625" style="1" customWidth="1"/>
-    <col min="4354" max="4354" width="12.77734375" style="1" customWidth="1"/>
-    <col min="4355" max="4355" width="8.77734375" style="1"/>
-    <col min="4356" max="4356" width="8.109375" style="1" customWidth="1"/>
-    <col min="4357" max="4357" width="10.109375" style="1" customWidth="1"/>
+    <col min="4104" max="4352" width="8.75" style="1"/>
+    <col min="4353" max="4353" width="4.625" style="1" customWidth="1"/>
+    <col min="4354" max="4354" width="12.75" style="1" customWidth="1"/>
+    <col min="4355" max="4355" width="8.75" style="1"/>
+    <col min="4356" max="4356" width="8.125" style="1" customWidth="1"/>
+    <col min="4357" max="4357" width="10.125" style="1" customWidth="1"/>
     <col min="4358" max="4359" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4608" width="8.77734375" style="1"/>
-    <col min="4609" max="4609" width="4.6640625" style="1" customWidth="1"/>
-    <col min="4610" max="4610" width="12.77734375" style="1" customWidth="1"/>
-    <col min="4611" max="4611" width="8.77734375" style="1"/>
-    <col min="4612" max="4612" width="8.109375" style="1" customWidth="1"/>
-    <col min="4613" max="4613" width="10.109375" style="1" customWidth="1"/>
+    <col min="4360" max="4608" width="8.75" style="1"/>
+    <col min="4609" max="4609" width="4.625" style="1" customWidth="1"/>
+    <col min="4610" max="4610" width="12.75" style="1" customWidth="1"/>
+    <col min="4611" max="4611" width="8.75" style="1"/>
+    <col min="4612" max="4612" width="8.125" style="1" customWidth="1"/>
+    <col min="4613" max="4613" width="10.125" style="1" customWidth="1"/>
     <col min="4614" max="4615" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4864" width="8.77734375" style="1"/>
-    <col min="4865" max="4865" width="4.6640625" style="1" customWidth="1"/>
-    <col min="4866" max="4866" width="12.77734375" style="1" customWidth="1"/>
-    <col min="4867" max="4867" width="8.77734375" style="1"/>
-    <col min="4868" max="4868" width="8.109375" style="1" customWidth="1"/>
-    <col min="4869" max="4869" width="10.109375" style="1" customWidth="1"/>
+    <col min="4616" max="4864" width="8.75" style="1"/>
+    <col min="4865" max="4865" width="4.625" style="1" customWidth="1"/>
+    <col min="4866" max="4866" width="12.75" style="1" customWidth="1"/>
+    <col min="4867" max="4867" width="8.75" style="1"/>
+    <col min="4868" max="4868" width="8.125" style="1" customWidth="1"/>
+    <col min="4869" max="4869" width="10.125" style="1" customWidth="1"/>
     <col min="4870" max="4871" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4872" max="5120" width="8.77734375" style="1"/>
-    <col min="5121" max="5121" width="4.6640625" style="1" customWidth="1"/>
-    <col min="5122" max="5122" width="12.77734375" style="1" customWidth="1"/>
-    <col min="5123" max="5123" width="8.77734375" style="1"/>
-    <col min="5124" max="5124" width="8.109375" style="1" customWidth="1"/>
-    <col min="5125" max="5125" width="10.109375" style="1" customWidth="1"/>
+    <col min="4872" max="5120" width="8.75" style="1"/>
+    <col min="5121" max="5121" width="4.625" style="1" customWidth="1"/>
+    <col min="5122" max="5122" width="12.75" style="1" customWidth="1"/>
+    <col min="5123" max="5123" width="8.75" style="1"/>
+    <col min="5124" max="5124" width="8.125" style="1" customWidth="1"/>
+    <col min="5125" max="5125" width="10.125" style="1" customWidth="1"/>
     <col min="5126" max="5127" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5376" width="8.77734375" style="1"/>
-    <col min="5377" max="5377" width="4.6640625" style="1" customWidth="1"/>
-    <col min="5378" max="5378" width="12.77734375" style="1" customWidth="1"/>
-    <col min="5379" max="5379" width="8.77734375" style="1"/>
-    <col min="5380" max="5380" width="8.109375" style="1" customWidth="1"/>
-    <col min="5381" max="5381" width="10.109375" style="1" customWidth="1"/>
+    <col min="5128" max="5376" width="8.75" style="1"/>
+    <col min="5377" max="5377" width="4.625" style="1" customWidth="1"/>
+    <col min="5378" max="5378" width="12.75" style="1" customWidth="1"/>
+    <col min="5379" max="5379" width="8.75" style="1"/>
+    <col min="5380" max="5380" width="8.125" style="1" customWidth="1"/>
+    <col min="5381" max="5381" width="10.125" style="1" customWidth="1"/>
     <col min="5382" max="5383" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5632" width="8.77734375" style="1"/>
-    <col min="5633" max="5633" width="4.6640625" style="1" customWidth="1"/>
-    <col min="5634" max="5634" width="12.77734375" style="1" customWidth="1"/>
-    <col min="5635" max="5635" width="8.77734375" style="1"/>
-    <col min="5636" max="5636" width="8.109375" style="1" customWidth="1"/>
-    <col min="5637" max="5637" width="10.109375" style="1" customWidth="1"/>
+    <col min="5384" max="5632" width="8.75" style="1"/>
+    <col min="5633" max="5633" width="4.625" style="1" customWidth="1"/>
+    <col min="5634" max="5634" width="12.75" style="1" customWidth="1"/>
+    <col min="5635" max="5635" width="8.75" style="1"/>
+    <col min="5636" max="5636" width="8.125" style="1" customWidth="1"/>
+    <col min="5637" max="5637" width="10.125" style="1" customWidth="1"/>
     <col min="5638" max="5639" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5888" width="8.77734375" style="1"/>
-    <col min="5889" max="5889" width="4.6640625" style="1" customWidth="1"/>
-    <col min="5890" max="5890" width="12.77734375" style="1" customWidth="1"/>
-    <col min="5891" max="5891" width="8.77734375" style="1"/>
-    <col min="5892" max="5892" width="8.109375" style="1" customWidth="1"/>
-    <col min="5893" max="5893" width="10.109375" style="1" customWidth="1"/>
+    <col min="5640" max="5888" width="8.75" style="1"/>
+    <col min="5889" max="5889" width="4.625" style="1" customWidth="1"/>
+    <col min="5890" max="5890" width="12.75" style="1" customWidth="1"/>
+    <col min="5891" max="5891" width="8.75" style="1"/>
+    <col min="5892" max="5892" width="8.125" style="1" customWidth="1"/>
+    <col min="5893" max="5893" width="10.125" style="1" customWidth="1"/>
     <col min="5894" max="5895" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="5896" max="6144" width="8.77734375" style="1"/>
-    <col min="6145" max="6145" width="4.6640625" style="1" customWidth="1"/>
-    <col min="6146" max="6146" width="12.77734375" style="1" customWidth="1"/>
-    <col min="6147" max="6147" width="8.77734375" style="1"/>
-    <col min="6148" max="6148" width="8.109375" style="1" customWidth="1"/>
-    <col min="6149" max="6149" width="10.109375" style="1" customWidth="1"/>
+    <col min="5896" max="6144" width="8.75" style="1"/>
+    <col min="6145" max="6145" width="4.625" style="1" customWidth="1"/>
+    <col min="6146" max="6146" width="12.75" style="1" customWidth="1"/>
+    <col min="6147" max="6147" width="8.75" style="1"/>
+    <col min="6148" max="6148" width="8.125" style="1" customWidth="1"/>
+    <col min="6149" max="6149" width="10.125" style="1" customWidth="1"/>
     <col min="6150" max="6151" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6400" width="8.77734375" style="1"/>
-    <col min="6401" max="6401" width="4.6640625" style="1" customWidth="1"/>
-    <col min="6402" max="6402" width="12.77734375" style="1" customWidth="1"/>
-    <col min="6403" max="6403" width="8.77734375" style="1"/>
-    <col min="6404" max="6404" width="8.109375" style="1" customWidth="1"/>
-    <col min="6405" max="6405" width="10.109375" style="1" customWidth="1"/>
+    <col min="6152" max="6400" width="8.75" style="1"/>
+    <col min="6401" max="6401" width="4.625" style="1" customWidth="1"/>
+    <col min="6402" max="6402" width="12.75" style="1" customWidth="1"/>
+    <col min="6403" max="6403" width="8.75" style="1"/>
+    <col min="6404" max="6404" width="8.125" style="1" customWidth="1"/>
+    <col min="6405" max="6405" width="10.125" style="1" customWidth="1"/>
     <col min="6406" max="6407" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6656" width="8.77734375" style="1"/>
-    <col min="6657" max="6657" width="4.6640625" style="1" customWidth="1"/>
-    <col min="6658" max="6658" width="12.77734375" style="1" customWidth="1"/>
-    <col min="6659" max="6659" width="8.77734375" style="1"/>
-    <col min="6660" max="6660" width="8.109375" style="1" customWidth="1"/>
-    <col min="6661" max="6661" width="10.109375" style="1" customWidth="1"/>
+    <col min="6408" max="6656" width="8.75" style="1"/>
+    <col min="6657" max="6657" width="4.625" style="1" customWidth="1"/>
+    <col min="6658" max="6658" width="12.75" style="1" customWidth="1"/>
+    <col min="6659" max="6659" width="8.75" style="1"/>
+    <col min="6660" max="6660" width="8.125" style="1" customWidth="1"/>
+    <col min="6661" max="6661" width="10.125" style="1" customWidth="1"/>
     <col min="6662" max="6663" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6912" width="8.77734375" style="1"/>
-    <col min="6913" max="6913" width="4.6640625" style="1" customWidth="1"/>
-    <col min="6914" max="6914" width="12.77734375" style="1" customWidth="1"/>
-    <col min="6915" max="6915" width="8.77734375" style="1"/>
-    <col min="6916" max="6916" width="8.109375" style="1" customWidth="1"/>
-    <col min="6917" max="6917" width="10.109375" style="1" customWidth="1"/>
+    <col min="6664" max="6912" width="8.75" style="1"/>
+    <col min="6913" max="6913" width="4.625" style="1" customWidth="1"/>
+    <col min="6914" max="6914" width="12.75" style="1" customWidth="1"/>
+    <col min="6915" max="6915" width="8.75" style="1"/>
+    <col min="6916" max="6916" width="8.125" style="1" customWidth="1"/>
+    <col min="6917" max="6917" width="10.125" style="1" customWidth="1"/>
     <col min="6918" max="6919" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6920" max="7168" width="8.77734375" style="1"/>
-    <col min="7169" max="7169" width="4.6640625" style="1" customWidth="1"/>
-    <col min="7170" max="7170" width="12.77734375" style="1" customWidth="1"/>
-    <col min="7171" max="7171" width="8.77734375" style="1"/>
-    <col min="7172" max="7172" width="8.109375" style="1" customWidth="1"/>
-    <col min="7173" max="7173" width="10.109375" style="1" customWidth="1"/>
+    <col min="6920" max="7168" width="8.75" style="1"/>
+    <col min="7169" max="7169" width="4.625" style="1" customWidth="1"/>
+    <col min="7170" max="7170" width="12.75" style="1" customWidth="1"/>
+    <col min="7171" max="7171" width="8.75" style="1"/>
+    <col min="7172" max="7172" width="8.125" style="1" customWidth="1"/>
+    <col min="7173" max="7173" width="10.125" style="1" customWidth="1"/>
     <col min="7174" max="7175" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7424" width="8.77734375" style="1"/>
-    <col min="7425" max="7425" width="4.6640625" style="1" customWidth="1"/>
-    <col min="7426" max="7426" width="12.77734375" style="1" customWidth="1"/>
-    <col min="7427" max="7427" width="8.77734375" style="1"/>
-    <col min="7428" max="7428" width="8.109375" style="1" customWidth="1"/>
-    <col min="7429" max="7429" width="10.109375" style="1" customWidth="1"/>
+    <col min="7176" max="7424" width="8.75" style="1"/>
+    <col min="7425" max="7425" width="4.625" style="1" customWidth="1"/>
+    <col min="7426" max="7426" width="12.75" style="1" customWidth="1"/>
+    <col min="7427" max="7427" width="8.75" style="1"/>
+    <col min="7428" max="7428" width="8.125" style="1" customWidth="1"/>
+    <col min="7429" max="7429" width="10.125" style="1" customWidth="1"/>
     <col min="7430" max="7431" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7680" width="8.77734375" style="1"/>
-    <col min="7681" max="7681" width="4.6640625" style="1" customWidth="1"/>
-    <col min="7682" max="7682" width="12.77734375" style="1" customWidth="1"/>
-    <col min="7683" max="7683" width="8.77734375" style="1"/>
-    <col min="7684" max="7684" width="8.109375" style="1" customWidth="1"/>
-    <col min="7685" max="7685" width="10.109375" style="1" customWidth="1"/>
+    <col min="7432" max="7680" width="8.75" style="1"/>
+    <col min="7681" max="7681" width="4.625" style="1" customWidth="1"/>
+    <col min="7682" max="7682" width="12.75" style="1" customWidth="1"/>
+    <col min="7683" max="7683" width="8.75" style="1"/>
+    <col min="7684" max="7684" width="8.125" style="1" customWidth="1"/>
+    <col min="7685" max="7685" width="10.125" style="1" customWidth="1"/>
     <col min="7686" max="7687" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7936" width="8.77734375" style="1"/>
-    <col min="7937" max="7937" width="4.6640625" style="1" customWidth="1"/>
-    <col min="7938" max="7938" width="12.77734375" style="1" customWidth="1"/>
-    <col min="7939" max="7939" width="8.77734375" style="1"/>
-    <col min="7940" max="7940" width="8.109375" style="1" customWidth="1"/>
-    <col min="7941" max="7941" width="10.109375" style="1" customWidth="1"/>
+    <col min="7688" max="7936" width="8.75" style="1"/>
+    <col min="7937" max="7937" width="4.625" style="1" customWidth="1"/>
+    <col min="7938" max="7938" width="12.75" style="1" customWidth="1"/>
+    <col min="7939" max="7939" width="8.75" style="1"/>
+    <col min="7940" max="7940" width="8.125" style="1" customWidth="1"/>
+    <col min="7941" max="7941" width="10.125" style="1" customWidth="1"/>
     <col min="7942" max="7943" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="7944" max="8192" width="8.77734375" style="1"/>
-    <col min="8193" max="8193" width="4.6640625" style="1" customWidth="1"/>
-    <col min="8194" max="8194" width="12.77734375" style="1" customWidth="1"/>
-    <col min="8195" max="8195" width="8.77734375" style="1"/>
-    <col min="8196" max="8196" width="8.109375" style="1" customWidth="1"/>
-    <col min="8197" max="8197" width="10.109375" style="1" customWidth="1"/>
+    <col min="7944" max="8192" width="8.75" style="1"/>
+    <col min="8193" max="8193" width="4.625" style="1" customWidth="1"/>
+    <col min="8194" max="8194" width="12.75" style="1" customWidth="1"/>
+    <col min="8195" max="8195" width="8.75" style="1"/>
+    <col min="8196" max="8196" width="8.125" style="1" customWidth="1"/>
+    <col min="8197" max="8197" width="10.125" style="1" customWidth="1"/>
     <col min="8198" max="8199" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8448" width="8.77734375" style="1"/>
-    <col min="8449" max="8449" width="4.6640625" style="1" customWidth="1"/>
-    <col min="8450" max="8450" width="12.77734375" style="1" customWidth="1"/>
-    <col min="8451" max="8451" width="8.77734375" style="1"/>
-    <col min="8452" max="8452" width="8.109375" style="1" customWidth="1"/>
-    <col min="8453" max="8453" width="10.109375" style="1" customWidth="1"/>
+    <col min="8200" max="8448" width="8.75" style="1"/>
+    <col min="8449" max="8449" width="4.625" style="1" customWidth="1"/>
+    <col min="8450" max="8450" width="12.75" style="1" customWidth="1"/>
+    <col min="8451" max="8451" width="8.75" style="1"/>
+    <col min="8452" max="8452" width="8.125" style="1" customWidth="1"/>
+    <col min="8453" max="8453" width="10.125" style="1" customWidth="1"/>
     <col min="8454" max="8455" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8704" width="8.77734375" style="1"/>
-    <col min="8705" max="8705" width="4.6640625" style="1" customWidth="1"/>
-    <col min="8706" max="8706" width="12.77734375" style="1" customWidth="1"/>
-    <col min="8707" max="8707" width="8.77734375" style="1"/>
-    <col min="8708" max="8708" width="8.109375" style="1" customWidth="1"/>
-    <col min="8709" max="8709" width="10.109375" style="1" customWidth="1"/>
+    <col min="8456" max="8704" width="8.75" style="1"/>
+    <col min="8705" max="8705" width="4.625" style="1" customWidth="1"/>
+    <col min="8706" max="8706" width="12.75" style="1" customWidth="1"/>
+    <col min="8707" max="8707" width="8.75" style="1"/>
+    <col min="8708" max="8708" width="8.125" style="1" customWidth="1"/>
+    <col min="8709" max="8709" width="10.125" style="1" customWidth="1"/>
     <col min="8710" max="8711" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8960" width="8.77734375" style="1"/>
-    <col min="8961" max="8961" width="4.6640625" style="1" customWidth="1"/>
-    <col min="8962" max="8962" width="12.77734375" style="1" customWidth="1"/>
-    <col min="8963" max="8963" width="8.77734375" style="1"/>
-    <col min="8964" max="8964" width="8.109375" style="1" customWidth="1"/>
-    <col min="8965" max="8965" width="10.109375" style="1" customWidth="1"/>
+    <col min="8712" max="8960" width="8.75" style="1"/>
+    <col min="8961" max="8961" width="4.625" style="1" customWidth="1"/>
+    <col min="8962" max="8962" width="12.75" style="1" customWidth="1"/>
+    <col min="8963" max="8963" width="8.75" style="1"/>
+    <col min="8964" max="8964" width="8.125" style="1" customWidth="1"/>
+    <col min="8965" max="8965" width="10.125" style="1" customWidth="1"/>
     <col min="8966" max="8967" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8968" max="9216" width="8.77734375" style="1"/>
-    <col min="9217" max="9217" width="4.6640625" style="1" customWidth="1"/>
-    <col min="9218" max="9218" width="12.77734375" style="1" customWidth="1"/>
-    <col min="9219" max="9219" width="8.77734375" style="1"/>
-    <col min="9220" max="9220" width="8.109375" style="1" customWidth="1"/>
-    <col min="9221" max="9221" width="10.109375" style="1" customWidth="1"/>
+    <col min="8968" max="9216" width="8.75" style="1"/>
+    <col min="9217" max="9217" width="4.625" style="1" customWidth="1"/>
+    <col min="9218" max="9218" width="12.75" style="1" customWidth="1"/>
+    <col min="9219" max="9219" width="8.75" style="1"/>
+    <col min="9220" max="9220" width="8.125" style="1" customWidth="1"/>
+    <col min="9221" max="9221" width="10.125" style="1" customWidth="1"/>
     <col min="9222" max="9223" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9472" width="8.77734375" style="1"/>
-    <col min="9473" max="9473" width="4.6640625" style="1" customWidth="1"/>
-    <col min="9474" max="9474" width="12.77734375" style="1" customWidth="1"/>
-    <col min="9475" max="9475" width="8.77734375" style="1"/>
-    <col min="9476" max="9476" width="8.109375" style="1" customWidth="1"/>
-    <col min="9477" max="9477" width="10.109375" style="1" customWidth="1"/>
+    <col min="9224" max="9472" width="8.75" style="1"/>
+    <col min="9473" max="9473" width="4.625" style="1" customWidth="1"/>
+    <col min="9474" max="9474" width="12.75" style="1" customWidth="1"/>
+    <col min="9475" max="9475" width="8.75" style="1"/>
+    <col min="9476" max="9476" width="8.125" style="1" customWidth="1"/>
+    <col min="9477" max="9477" width="10.125" style="1" customWidth="1"/>
     <col min="9478" max="9479" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9728" width="8.77734375" style="1"/>
-    <col min="9729" max="9729" width="4.6640625" style="1" customWidth="1"/>
-    <col min="9730" max="9730" width="12.77734375" style="1" customWidth="1"/>
-    <col min="9731" max="9731" width="8.77734375" style="1"/>
-    <col min="9732" max="9732" width="8.109375" style="1" customWidth="1"/>
-    <col min="9733" max="9733" width="10.109375" style="1" customWidth="1"/>
+    <col min="9480" max="9728" width="8.75" style="1"/>
+    <col min="9729" max="9729" width="4.625" style="1" customWidth="1"/>
+    <col min="9730" max="9730" width="12.75" style="1" customWidth="1"/>
+    <col min="9731" max="9731" width="8.75" style="1"/>
+    <col min="9732" max="9732" width="8.125" style="1" customWidth="1"/>
+    <col min="9733" max="9733" width="10.125" style="1" customWidth="1"/>
     <col min="9734" max="9735" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9984" width="8.77734375" style="1"/>
-    <col min="9985" max="9985" width="4.6640625" style="1" customWidth="1"/>
-    <col min="9986" max="9986" width="12.77734375" style="1" customWidth="1"/>
-    <col min="9987" max="9987" width="8.77734375" style="1"/>
-    <col min="9988" max="9988" width="8.109375" style="1" customWidth="1"/>
-    <col min="9989" max="9989" width="10.109375" style="1" customWidth="1"/>
+    <col min="9736" max="9984" width="8.75" style="1"/>
+    <col min="9985" max="9985" width="4.625" style="1" customWidth="1"/>
+    <col min="9986" max="9986" width="12.75" style="1" customWidth="1"/>
+    <col min="9987" max="9987" width="8.75" style="1"/>
+    <col min="9988" max="9988" width="8.125" style="1" customWidth="1"/>
+    <col min="9989" max="9989" width="10.125" style="1" customWidth="1"/>
     <col min="9990" max="9991" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="9992" max="10240" width="8.77734375" style="1"/>
-    <col min="10241" max="10241" width="4.6640625" style="1" customWidth="1"/>
-    <col min="10242" max="10242" width="12.77734375" style="1" customWidth="1"/>
-    <col min="10243" max="10243" width="8.77734375" style="1"/>
-    <col min="10244" max="10244" width="8.109375" style="1" customWidth="1"/>
-    <col min="10245" max="10245" width="10.109375" style="1" customWidth="1"/>
+    <col min="9992" max="10240" width="8.75" style="1"/>
+    <col min="10241" max="10241" width="4.625" style="1" customWidth="1"/>
+    <col min="10242" max="10242" width="12.75" style="1" customWidth="1"/>
+    <col min="10243" max="10243" width="8.75" style="1"/>
+    <col min="10244" max="10244" width="8.125" style="1" customWidth="1"/>
+    <col min="10245" max="10245" width="10.125" style="1" customWidth="1"/>
     <col min="10246" max="10247" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10496" width="8.77734375" style="1"/>
-    <col min="10497" max="10497" width="4.6640625" style="1" customWidth="1"/>
-    <col min="10498" max="10498" width="12.77734375" style="1" customWidth="1"/>
-    <col min="10499" max="10499" width="8.77734375" style="1"/>
-    <col min="10500" max="10500" width="8.109375" style="1" customWidth="1"/>
-    <col min="10501" max="10501" width="10.109375" style="1" customWidth="1"/>
+    <col min="10248" max="10496" width="8.75" style="1"/>
+    <col min="10497" max="10497" width="4.625" style="1" customWidth="1"/>
+    <col min="10498" max="10498" width="12.75" style="1" customWidth="1"/>
+    <col min="10499" max="10499" width="8.75" style="1"/>
+    <col min="10500" max="10500" width="8.125" style="1" customWidth="1"/>
+    <col min="10501" max="10501" width="10.125" style="1" customWidth="1"/>
     <col min="10502" max="10503" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10752" width="8.77734375" style="1"/>
-    <col min="10753" max="10753" width="4.6640625" style="1" customWidth="1"/>
-    <col min="10754" max="10754" width="12.77734375" style="1" customWidth="1"/>
-    <col min="10755" max="10755" width="8.77734375" style="1"/>
-    <col min="10756" max="10756" width="8.109375" style="1" customWidth="1"/>
-    <col min="10757" max="10757" width="10.109375" style="1" customWidth="1"/>
+    <col min="10504" max="10752" width="8.75" style="1"/>
+    <col min="10753" max="10753" width="4.625" style="1" customWidth="1"/>
+    <col min="10754" max="10754" width="12.75" style="1" customWidth="1"/>
+    <col min="10755" max="10755" width="8.75" style="1"/>
+    <col min="10756" max="10756" width="8.125" style="1" customWidth="1"/>
+    <col min="10757" max="10757" width="10.125" style="1" customWidth="1"/>
     <col min="10758" max="10759" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="10760" max="11008" width="8.77734375" style="1"/>
-    <col min="11009" max="11009" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11010" max="11010" width="12.77734375" style="1" customWidth="1"/>
-    <col min="11011" max="11011" width="8.77734375" style="1"/>
-    <col min="11012" max="11012" width="8.109375" style="1" customWidth="1"/>
-    <col min="11013" max="11013" width="10.109375" style="1" customWidth="1"/>
+    <col min="10760" max="11008" width="8.75" style="1"/>
+    <col min="11009" max="11009" width="4.625" style="1" customWidth="1"/>
+    <col min="11010" max="11010" width="12.75" style="1" customWidth="1"/>
+    <col min="11011" max="11011" width="8.75" style="1"/>
+    <col min="11012" max="11012" width="8.125" style="1" customWidth="1"/>
+    <col min="11013" max="11013" width="10.125" style="1" customWidth="1"/>
     <col min="11014" max="11015" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11264" width="8.77734375" style="1"/>
-    <col min="11265" max="11265" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11266" max="11266" width="12.77734375" style="1" customWidth="1"/>
-    <col min="11267" max="11267" width="8.77734375" style="1"/>
-    <col min="11268" max="11268" width="8.109375" style="1" customWidth="1"/>
-    <col min="11269" max="11269" width="10.109375" style="1" customWidth="1"/>
+    <col min="11016" max="11264" width="8.75" style="1"/>
+    <col min="11265" max="11265" width="4.625" style="1" customWidth="1"/>
+    <col min="11266" max="11266" width="12.75" style="1" customWidth="1"/>
+    <col min="11267" max="11267" width="8.75" style="1"/>
+    <col min="11268" max="11268" width="8.125" style="1" customWidth="1"/>
+    <col min="11269" max="11269" width="10.125" style="1" customWidth="1"/>
     <col min="11270" max="11271" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11520" width="8.77734375" style="1"/>
-    <col min="11521" max="11521" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11522" max="11522" width="12.77734375" style="1" customWidth="1"/>
-    <col min="11523" max="11523" width="8.77734375" style="1"/>
-    <col min="11524" max="11524" width="8.109375" style="1" customWidth="1"/>
-    <col min="11525" max="11525" width="10.109375" style="1" customWidth="1"/>
+    <col min="11272" max="11520" width="8.75" style="1"/>
+    <col min="11521" max="11521" width="4.625" style="1" customWidth="1"/>
+    <col min="11522" max="11522" width="12.75" style="1" customWidth="1"/>
+    <col min="11523" max="11523" width="8.75" style="1"/>
+    <col min="11524" max="11524" width="8.125" style="1" customWidth="1"/>
+    <col min="11525" max="11525" width="10.125" style="1" customWidth="1"/>
     <col min="11526" max="11527" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11776" width="8.77734375" style="1"/>
-    <col min="11777" max="11777" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11778" max="11778" width="12.77734375" style="1" customWidth="1"/>
-    <col min="11779" max="11779" width="8.77734375" style="1"/>
-    <col min="11780" max="11780" width="8.109375" style="1" customWidth="1"/>
-    <col min="11781" max="11781" width="10.109375" style="1" customWidth="1"/>
+    <col min="11528" max="11776" width="8.75" style="1"/>
+    <col min="11777" max="11777" width="4.625" style="1" customWidth="1"/>
+    <col min="11778" max="11778" width="12.75" style="1" customWidth="1"/>
+    <col min="11779" max="11779" width="8.75" style="1"/>
+    <col min="11780" max="11780" width="8.125" style="1" customWidth="1"/>
+    <col min="11781" max="11781" width="10.125" style="1" customWidth="1"/>
     <col min="11782" max="11783" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11784" max="12032" width="8.77734375" style="1"/>
-    <col min="12033" max="12033" width="4.6640625" style="1" customWidth="1"/>
-    <col min="12034" max="12034" width="12.77734375" style="1" customWidth="1"/>
-    <col min="12035" max="12035" width="8.77734375" style="1"/>
-    <col min="12036" max="12036" width="8.109375" style="1" customWidth="1"/>
-    <col min="12037" max="12037" width="10.109375" style="1" customWidth="1"/>
+    <col min="11784" max="12032" width="8.75" style="1"/>
+    <col min="12033" max="12033" width="4.625" style="1" customWidth="1"/>
+    <col min="12034" max="12034" width="12.75" style="1" customWidth="1"/>
+    <col min="12035" max="12035" width="8.75" style="1"/>
+    <col min="12036" max="12036" width="8.125" style="1" customWidth="1"/>
+    <col min="12037" max="12037" width="10.125" style="1" customWidth="1"/>
     <col min="12038" max="12039" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12288" width="8.77734375" style="1"/>
-    <col min="12289" max="12289" width="4.6640625" style="1" customWidth="1"/>
-    <col min="12290" max="12290" width="12.77734375" style="1" customWidth="1"/>
-    <col min="12291" max="12291" width="8.77734375" style="1"/>
-    <col min="12292" max="12292" width="8.109375" style="1" customWidth="1"/>
-    <col min="12293" max="12293" width="10.109375" style="1" customWidth="1"/>
+    <col min="12040" max="12288" width="8.75" style="1"/>
+    <col min="12289" max="12289" width="4.625" style="1" customWidth="1"/>
+    <col min="12290" max="12290" width="12.75" style="1" customWidth="1"/>
+    <col min="12291" max="12291" width="8.75" style="1"/>
+    <col min="12292" max="12292" width="8.125" style="1" customWidth="1"/>
+    <col min="12293" max="12293" width="10.125" style="1" customWidth="1"/>
     <col min="12294" max="12295" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12544" width="8.77734375" style="1"/>
-    <col min="12545" max="12545" width="4.6640625" style="1" customWidth="1"/>
-    <col min="12546" max="12546" width="12.77734375" style="1" customWidth="1"/>
-    <col min="12547" max="12547" width="8.77734375" style="1"/>
-    <col min="12548" max="12548" width="8.109375" style="1" customWidth="1"/>
-    <col min="12549" max="12549" width="10.109375" style="1" customWidth="1"/>
+    <col min="12296" max="12544" width="8.75" style="1"/>
+    <col min="12545" max="12545" width="4.625" style="1" customWidth="1"/>
+    <col min="12546" max="12546" width="12.75" style="1" customWidth="1"/>
+    <col min="12547" max="12547" width="8.75" style="1"/>
+    <col min="12548" max="12548" width="8.125" style="1" customWidth="1"/>
+    <col min="12549" max="12549" width="10.125" style="1" customWidth="1"/>
     <col min="12550" max="12551" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12800" width="8.77734375" style="1"/>
-    <col min="12801" max="12801" width="4.6640625" style="1" customWidth="1"/>
-    <col min="12802" max="12802" width="12.77734375" style="1" customWidth="1"/>
-    <col min="12803" max="12803" width="8.77734375" style="1"/>
-    <col min="12804" max="12804" width="8.109375" style="1" customWidth="1"/>
-    <col min="12805" max="12805" width="10.109375" style="1" customWidth="1"/>
+    <col min="12552" max="12800" width="8.75" style="1"/>
+    <col min="12801" max="12801" width="4.625" style="1" customWidth="1"/>
+    <col min="12802" max="12802" width="12.75" style="1" customWidth="1"/>
+    <col min="12803" max="12803" width="8.75" style="1"/>
+    <col min="12804" max="12804" width="8.125" style="1" customWidth="1"/>
+    <col min="12805" max="12805" width="10.125" style="1" customWidth="1"/>
     <col min="12806" max="12807" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="12808" max="13056" width="8.77734375" style="1"/>
-    <col min="13057" max="13057" width="4.6640625" style="1" customWidth="1"/>
-    <col min="13058" max="13058" width="12.77734375" style="1" customWidth="1"/>
-    <col min="13059" max="13059" width="8.77734375" style="1"/>
-    <col min="13060" max="13060" width="8.109375" style="1" customWidth="1"/>
-    <col min="13061" max="13061" width="10.109375" style="1" customWidth="1"/>
+    <col min="12808" max="13056" width="8.75" style="1"/>
+    <col min="13057" max="13057" width="4.625" style="1" customWidth="1"/>
+    <col min="13058" max="13058" width="12.75" style="1" customWidth="1"/>
+    <col min="13059" max="13059" width="8.75" style="1"/>
+    <col min="13060" max="13060" width="8.125" style="1" customWidth="1"/>
+    <col min="13061" max="13061" width="10.125" style="1" customWidth="1"/>
     <col min="13062" max="13063" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13312" width="8.77734375" style="1"/>
-    <col min="13313" max="13313" width="4.6640625" style="1" customWidth="1"/>
-    <col min="13314" max="13314" width="12.77734375" style="1" customWidth="1"/>
-    <col min="13315" max="13315" width="8.77734375" style="1"/>
-    <col min="13316" max="13316" width="8.109375" style="1" customWidth="1"/>
-    <col min="13317" max="13317" width="10.109375" style="1" customWidth="1"/>
+    <col min="13064" max="13312" width="8.75" style="1"/>
+    <col min="13313" max="13313" width="4.625" style="1" customWidth="1"/>
+    <col min="13314" max="13314" width="12.75" style="1" customWidth="1"/>
+    <col min="13315" max="13315" width="8.75" style="1"/>
+    <col min="13316" max="13316" width="8.125" style="1" customWidth="1"/>
+    <col min="13317" max="13317" width="10.125" style="1" customWidth="1"/>
     <col min="13318" max="13319" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13568" width="8.77734375" style="1"/>
-    <col min="13569" max="13569" width="4.6640625" style="1" customWidth="1"/>
-    <col min="13570" max="13570" width="12.77734375" style="1" customWidth="1"/>
-    <col min="13571" max="13571" width="8.77734375" style="1"/>
-    <col min="13572" max="13572" width="8.109375" style="1" customWidth="1"/>
-    <col min="13573" max="13573" width="10.109375" style="1" customWidth="1"/>
+    <col min="13320" max="13568" width="8.75" style="1"/>
+    <col min="13569" max="13569" width="4.625" style="1" customWidth="1"/>
+    <col min="13570" max="13570" width="12.75" style="1" customWidth="1"/>
+    <col min="13571" max="13571" width="8.75" style="1"/>
+    <col min="13572" max="13572" width="8.125" style="1" customWidth="1"/>
+    <col min="13573" max="13573" width="10.125" style="1" customWidth="1"/>
     <col min="13574" max="13575" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13824" width="8.77734375" style="1"/>
-    <col min="13825" max="13825" width="4.6640625" style="1" customWidth="1"/>
-    <col min="13826" max="13826" width="12.77734375" style="1" customWidth="1"/>
-    <col min="13827" max="13827" width="8.77734375" style="1"/>
-    <col min="13828" max="13828" width="8.109375" style="1" customWidth="1"/>
-    <col min="13829" max="13829" width="10.109375" style="1" customWidth="1"/>
+    <col min="13576" max="13824" width="8.75" style="1"/>
+    <col min="13825" max="13825" width="4.625" style="1" customWidth="1"/>
+    <col min="13826" max="13826" width="12.75" style="1" customWidth="1"/>
+    <col min="13827" max="13827" width="8.75" style="1"/>
+    <col min="13828" max="13828" width="8.125" style="1" customWidth="1"/>
+    <col min="13829" max="13829" width="10.125" style="1" customWidth="1"/>
     <col min="13830" max="13831" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="13832" max="14080" width="8.77734375" style="1"/>
-    <col min="14081" max="14081" width="4.6640625" style="1" customWidth="1"/>
-    <col min="14082" max="14082" width="12.77734375" style="1" customWidth="1"/>
-    <col min="14083" max="14083" width="8.77734375" style="1"/>
-    <col min="14084" max="14084" width="8.109375" style="1" customWidth="1"/>
-    <col min="14085" max="14085" width="10.109375" style="1" customWidth="1"/>
+    <col min="13832" max="14080" width="8.75" style="1"/>
+    <col min="14081" max="14081" width="4.625" style="1" customWidth="1"/>
+    <col min="14082" max="14082" width="12.75" style="1" customWidth="1"/>
+    <col min="14083" max="14083" width="8.75" style="1"/>
+    <col min="14084" max="14084" width="8.125" style="1" customWidth="1"/>
+    <col min="14085" max="14085" width="10.125" style="1" customWidth="1"/>
     <col min="14086" max="14087" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14336" width="8.77734375" style="1"/>
-    <col min="14337" max="14337" width="4.6640625" style="1" customWidth="1"/>
-    <col min="14338" max="14338" width="12.77734375" style="1" customWidth="1"/>
-    <col min="14339" max="14339" width="8.77734375" style="1"/>
-    <col min="14340" max="14340" width="8.109375" style="1" customWidth="1"/>
-    <col min="14341" max="14341" width="10.109375" style="1" customWidth="1"/>
+    <col min="14088" max="14336" width="8.75" style="1"/>
+    <col min="14337" max="14337" width="4.625" style="1" customWidth="1"/>
+    <col min="14338" max="14338" width="12.75" style="1" customWidth="1"/>
+    <col min="14339" max="14339" width="8.75" style="1"/>
+    <col min="14340" max="14340" width="8.125" style="1" customWidth="1"/>
+    <col min="14341" max="14341" width="10.125" style="1" customWidth="1"/>
     <col min="14342" max="14343" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14592" width="8.77734375" style="1"/>
-    <col min="14593" max="14593" width="4.6640625" style="1" customWidth="1"/>
-    <col min="14594" max="14594" width="12.77734375" style="1" customWidth="1"/>
-    <col min="14595" max="14595" width="8.77734375" style="1"/>
-    <col min="14596" max="14596" width="8.109375" style="1" customWidth="1"/>
-    <col min="14597" max="14597" width="10.109375" style="1" customWidth="1"/>
+    <col min="14344" max="14592" width="8.75" style="1"/>
+    <col min="14593" max="14593" width="4.625" style="1" customWidth="1"/>
+    <col min="14594" max="14594" width="12.75" style="1" customWidth="1"/>
+    <col min="14595" max="14595" width="8.75" style="1"/>
+    <col min="14596" max="14596" width="8.125" style="1" customWidth="1"/>
+    <col min="14597" max="14597" width="10.125" style="1" customWidth="1"/>
     <col min="14598" max="14599" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14848" width="8.77734375" style="1"/>
-    <col min="14849" max="14849" width="4.6640625" style="1" customWidth="1"/>
-    <col min="14850" max="14850" width="12.77734375" style="1" customWidth="1"/>
-    <col min="14851" max="14851" width="8.77734375" style="1"/>
-    <col min="14852" max="14852" width="8.109375" style="1" customWidth="1"/>
-    <col min="14853" max="14853" width="10.109375" style="1" customWidth="1"/>
+    <col min="14600" max="14848" width="8.75" style="1"/>
+    <col min="14849" max="14849" width="4.625" style="1" customWidth="1"/>
+    <col min="14850" max="14850" width="12.75" style="1" customWidth="1"/>
+    <col min="14851" max="14851" width="8.75" style="1"/>
+    <col min="14852" max="14852" width="8.125" style="1" customWidth="1"/>
+    <col min="14853" max="14853" width="10.125" style="1" customWidth="1"/>
     <col min="14854" max="14855" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14856" max="15104" width="8.77734375" style="1"/>
-    <col min="15105" max="15105" width="4.6640625" style="1" customWidth="1"/>
-    <col min="15106" max="15106" width="12.77734375" style="1" customWidth="1"/>
-    <col min="15107" max="15107" width="8.77734375" style="1"/>
-    <col min="15108" max="15108" width="8.109375" style="1" customWidth="1"/>
-    <col min="15109" max="15109" width="10.109375" style="1" customWidth="1"/>
+    <col min="14856" max="15104" width="8.75" style="1"/>
+    <col min="15105" max="15105" width="4.625" style="1" customWidth="1"/>
+    <col min="15106" max="15106" width="12.75" style="1" customWidth="1"/>
+    <col min="15107" max="15107" width="8.75" style="1"/>
+    <col min="15108" max="15108" width="8.125" style="1" customWidth="1"/>
+    <col min="15109" max="15109" width="10.125" style="1" customWidth="1"/>
     <col min="15110" max="15111" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15360" width="8.77734375" style="1"/>
-    <col min="15361" max="15361" width="4.6640625" style="1" customWidth="1"/>
-    <col min="15362" max="15362" width="12.77734375" style="1" customWidth="1"/>
-    <col min="15363" max="15363" width="8.77734375" style="1"/>
-    <col min="15364" max="15364" width="8.109375" style="1" customWidth="1"/>
-    <col min="15365" max="15365" width="10.109375" style="1" customWidth="1"/>
+    <col min="15112" max="15360" width="8.75" style="1"/>
+    <col min="15361" max="15361" width="4.625" style="1" customWidth="1"/>
+    <col min="15362" max="15362" width="12.75" style="1" customWidth="1"/>
+    <col min="15363" max="15363" width="8.75" style="1"/>
+    <col min="15364" max="15364" width="8.125" style="1" customWidth="1"/>
+    <col min="15365" max="15365" width="10.125" style="1" customWidth="1"/>
     <col min="15366" max="15367" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15616" width="8.77734375" style="1"/>
-    <col min="15617" max="15617" width="4.6640625" style="1" customWidth="1"/>
-    <col min="15618" max="15618" width="12.77734375" style="1" customWidth="1"/>
-    <col min="15619" max="15619" width="8.77734375" style="1"/>
-    <col min="15620" max="15620" width="8.109375" style="1" customWidth="1"/>
-    <col min="15621" max="15621" width="10.109375" style="1" customWidth="1"/>
+    <col min="15368" max="15616" width="8.75" style="1"/>
+    <col min="15617" max="15617" width="4.625" style="1" customWidth="1"/>
+    <col min="15618" max="15618" width="12.75" style="1" customWidth="1"/>
+    <col min="15619" max="15619" width="8.75" style="1"/>
+    <col min="15620" max="15620" width="8.125" style="1" customWidth="1"/>
+    <col min="15621" max="15621" width="10.125" style="1" customWidth="1"/>
     <col min="15622" max="15623" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15872" width="8.77734375" style="1"/>
-    <col min="15873" max="15873" width="4.6640625" style="1" customWidth="1"/>
-    <col min="15874" max="15874" width="12.77734375" style="1" customWidth="1"/>
-    <col min="15875" max="15875" width="8.77734375" style="1"/>
-    <col min="15876" max="15876" width="8.109375" style="1" customWidth="1"/>
-    <col min="15877" max="15877" width="10.109375" style="1" customWidth="1"/>
+    <col min="15624" max="15872" width="8.75" style="1"/>
+    <col min="15873" max="15873" width="4.625" style="1" customWidth="1"/>
+    <col min="15874" max="15874" width="12.75" style="1" customWidth="1"/>
+    <col min="15875" max="15875" width="8.75" style="1"/>
+    <col min="15876" max="15876" width="8.125" style="1" customWidth="1"/>
+    <col min="15877" max="15877" width="10.125" style="1" customWidth="1"/>
     <col min="15878" max="15879" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="15880" max="16128" width="8.77734375" style="1"/>
-    <col min="16129" max="16129" width="4.6640625" style="1" customWidth="1"/>
-    <col min="16130" max="16130" width="12.77734375" style="1" customWidth="1"/>
-    <col min="16131" max="16131" width="8.77734375" style="1"/>
-    <col min="16132" max="16132" width="8.109375" style="1" customWidth="1"/>
-    <col min="16133" max="16133" width="10.109375" style="1" customWidth="1"/>
+    <col min="15880" max="16128" width="8.75" style="1"/>
+    <col min="16129" max="16129" width="4.625" style="1" customWidth="1"/>
+    <col min="16130" max="16130" width="12.75" style="1" customWidth="1"/>
+    <col min="16131" max="16131" width="8.75" style="1"/>
+    <col min="16132" max="16132" width="8.125" style="1" customWidth="1"/>
+    <col min="16133" max="16133" width="10.125" style="1" customWidth="1"/>
     <col min="16134" max="16135" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16384" width="8.77734375" style="1"/>
+    <col min="16136" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="57.75" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.6">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="10"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="8" t="s">
         <v>6</v>
       </c>
@@ -1076,38 +1076,38 @@
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="J4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
@@ -1195,64 +1195,64 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="40" spans="1:7" ht="14.4">
+    <row r="40" spans="1:7">
       <c r="E40" s="5"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:7" ht="14.4">
+    <row r="41" spans="1:7">
       <c r="E41" s="7"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:7" ht="14.4">
+    <row r="42" spans="1:7">
       <c r="E42" s="7"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:7" ht="14.4">
+    <row r="43" spans="1:7">
       <c r="E43" s="5"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:7" ht="14.4">
+    <row r="44" spans="1:7">
       <c r="E44" s="5"/>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:7" ht="14.4">
+    <row r="45" spans="1:7">
       <c r="E45" s="5"/>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:7" ht="14.4">
+    <row r="46" spans="1:7">
       <c r="E46" s="5"/>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:7" ht="14.4">
+    <row r="47" spans="1:7">
       <c r="E47" s="5"/>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:7" ht="14.4">
+    <row r="48" spans="1:7">
       <c r="E48" s="5"/>
       <c r="F48" s="6"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="5:7" ht="14.4">
+    <row r="49" spans="5:7">
       <c r="E49" s="5"/>
       <c r="F49" s="6"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="5:7" ht="14.4">
+    <row r="50" spans="5:7">
       <c r="E50" s="5"/>
       <c r="F50" s="6"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="5:7" ht="14.4">
+    <row r="51" spans="5:7">
       <c r="E51" s="5"/>
       <c r="F51" s="6"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="5:7" ht="14.4">
+    <row r="52" spans="5:7">
       <c r="E52" s="7"/>
       <c r="F52" s="6"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="5:7" ht="14.4">
+    <row r="53" spans="5:7">
       <c r="E53" s="5"/>
       <c r="F53" s="6"/>
       <c r="G53" s="1"/>
